--- a/Docs/Testing (TES)/TS_home_best_buy.xlsx
+++ b/Docs/Testing (TES)/TS_home_best_buy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="19440" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="15600" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>N</t>
   </si>
@@ -60,9 +60,6 @@
     <t>тестирование на расположение элементов на странице Home</t>
   </si>
   <si>
-    <t>1. заходим на страницу www.vashchenko.com</t>
-  </si>
-  <si>
     <t>TS_home_001</t>
   </si>
   <si>
@@ -141,13 +138,22 @@
     <t>тестирование на поведение системы после подтверждения заказа фотографии</t>
   </si>
   <si>
-    <t>1. заходим на сайт www.vashchenko.com           2. выбираем любую фотографию                           3. нажимаем кнопку "Buy"</t>
-  </si>
-  <si>
-    <t>1. заходим на сайт www.vashchenko.com           2. выбираем любую фотографию                           3. нажимаем кнопку "Buy"                                         4. заполняем "личные данные" посетителя сайта и выбираем любой размер фотографии     5. нажимаем кнопку "Buy"</t>
-  </si>
-  <si>
-    <t>1. заходим на сайт www.vashchenko.com           2. выбираем любую фотографию                           3. нажимаем кнопку "Buy"                                         4. заполняем "личные данные" посетителя сайта</t>
+    <t>1. открываем браузер                                                   2. набираем в адрессной строке браузера www.vashchenko.com нажимаем кнопку перехода на этот сайт</t>
+  </si>
+  <si>
+    <t>Zazulya Aleksandr</t>
+  </si>
+  <si>
+    <t>1. открываем браузер                                                   2. набираем в адрессной строке браузера www.vashchenko.com нажимаем кнопку перехода на этот сайт                                                   3. выбираем любую фотографию и нажимаем на нее                                                                                   4. нажимаем кнопку "Buy"</t>
+  </si>
+  <si>
+    <t>1. открываем браузер                                                   2. набираем в адрессной строке браузера www.vashchenko.com нажимаем кнопку перехода на этот сайт                                                   3. выбираем любую фотографию и нажимаем на нее                                                                                     4. нажимаем кнопку "Buy"</t>
+  </si>
+  <si>
+    <t>1. заходим на сайт www.vashchenko.com           2. выбираем любую фотографию и нажимаем на нее                                                                                     3. нажимаем кнопку "Buy"                                         4. заполняем "личные данные" посетителя сайта</t>
+  </si>
+  <si>
+    <t>1. открываем браузер                                                   2. набираем в адрессной строке браузера www.vashchenko.com нажимаем кнопку перехода на этот сайт                                                   3. выбираем любую фотографию и нажимаем на нее                                                                                     4. нажимаем кнопку "Buy"                                         5. заполняем "личные данные" посетителя сайта и выбираем любой размер фотографии     6. нажимаем кнопку "Buy"</t>
   </si>
 </sst>
 </file>
@@ -517,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,84 +572,96 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="60" x14ac:dyDescent="0.25">
@@ -651,99 +669,114 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="150" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
